--- a/aprendendo_ML_de_Scikit_Learn/iris.xlsx
+++ b/aprendendo_ML_de_Scikit_Learn/iris.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>num_especie</t>
+          <t>target</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>especies</t>
+          <t>target names</t>
         </is>
       </c>
     </row>
